--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail10 Features.xlsx
@@ -2950,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,29 +2961,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3004,115 +3002,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3129,72 +3117,66 @@
         <v>1.937376979680543e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.417931273735414</v>
+        <v>1.190947141007135e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.189551586653865</v>
+        <v>3.029321153735938e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.190947141007135e-06</v>
+        <v>-0.1023478907951657</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.029321153735938e-06</v>
+        <v>0.2750906720714205</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1023478907951657</v>
+        <v>0.08597026636520197</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2750906720714205</v>
+        <v>1.601286988497315</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08597026636520197</v>
+        <v>1.483371564647786</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.521130832513023</v>
+        <v>3.96400813843356</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.483371564647786</v>
+        <v>1.076066038121031e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.96400813843356</v>
+        <v>18656053.58889314</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.076066038121031e-14</v>
+        <v>5.613201718170294e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>18656053.58889314</v>
+        <v>3.745229934686431</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.613201718170294e-06</v>
+        <v>0.0001540401094197424</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.745229934686431</v>
+        <v>10.4293189740317</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001540401094197424</v>
+        <v>1.116472717432466</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.4293189740317</v>
+        <v>0.01675504964579486</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.116472717432466</v>
+        <v>2.666913460928882</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01675504964579486</v>
+        <v>0.9418588095076932</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.666913460928882</v>
+        <v>1.855424372562781</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9418588095076932</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.855424372562781</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.161955296428356</v>
       </c>
     </row>
@@ -3209,72 +3191,66 @@
         <v>1.579754709694902e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.896990489893707</v>
+        <v>9.126421463623473e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.574627091025951</v>
+        <v>3.011929750875746e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.126421463623473e-07</v>
+        <v>-0.09636350843070816</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.011929750875746e-06</v>
+        <v>0.2605364100688721</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09636350843070816</v>
+        <v>0.07702315226075793</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2605364100688721</v>
+        <v>1.598976368513916</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07702315226075793</v>
+        <v>1.441986322206258</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.520663256798045</v>
+        <v>3.916877819285678</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.441986322206258</v>
+        <v>1.102117631990044e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.916877819285678</v>
+        <v>18071333.03792252</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.102117631990044e-14</v>
+        <v>5.791388919764985e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>18071333.03792252</v>
+        <v>3.599219471408285</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.791388919764985e-06</v>
+        <v>0.000148880524658582</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.599219471408285</v>
+        <v>9.736769819370638</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000148880524658582</v>
+        <v>1.143935908272573</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.736769819370638</v>
+        <v>0.01411457146850618</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.143935908272573</v>
+        <v>2.713593184907375</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01411457146850618</v>
+        <v>0.9418768123574434</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.713593184907375</v>
+        <v>1.87355857293107</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9418768123574434</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.87355857293107</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1654044302882772</v>
       </c>
     </row>
@@ -3289,72 +3265,66 @@
         <v>1.342536577384825e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.409473277400567</v>
+        <v>7.148392675009638e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.321978185524756</v>
+        <v>2.998496168410267e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.148392675009638e-07</v>
+        <v>-0.0881701428869069</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.998496168410267e-06</v>
+        <v>0.2498736178045224</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0881701428869069</v>
+        <v>0.07011438451540886</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2498736178045224</v>
+        <v>1.591646370907651</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07011438451540886</v>
+        <v>1.416264099612931</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.514855685884982</v>
+        <v>3.855602459319915</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.416264099612931</v>
+        <v>1.137426919414149e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.855602459319915</v>
+        <v>17386714.32055752</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.137426919414149e-14</v>
+        <v>6.001053320840838e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>17386714.32055752</v>
+        <v>3.438416950557</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.001053320840838e-06</v>
+        <v>0.0001476889125690001</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.438416950557</v>
+        <v>8.575491380332188</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001476889125690001</v>
+        <v>1.247332421396596</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.575491380332188</v>
+        <v>0.01086090268240076</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.247332421396596</v>
+        <v>2.836116537660017</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01086090268240076</v>
+        <v>0.943680485607809</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.836116537660017</v>
+        <v>1.87533103243823</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.943680485607809</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.87533103243823</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1614074954868211</v>
       </c>
     </row>
@@ -3369,72 +3339,66 @@
         <v>1.184048831895989e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.025091278534134</v>
+        <v>5.753666069233547e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.6621573668933216</v>
+        <v>2.988001174779579e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.753666069233547e-07</v>
+        <v>-0.07817849518273194</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.988001174779579e-06</v>
+        <v>0.2471122480518279</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07817849518273194</v>
+        <v>0.06710834637176831</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2471122480518279</v>
+        <v>1.579674793438792</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06710834637176831</v>
+        <v>1.400992974038363</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.504024067152308</v>
+        <v>3.759359380604924</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.400992974038363</v>
+        <v>1.19641076062581e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.759359380604924</v>
+        <v>16357049.58590066</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.19641076062581e-14</v>
+        <v>6.349197784882871e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>16357049.58590066</v>
+        <v>3.201033733690586</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.349197784882871e-06</v>
+        <v>0.000156712001611858</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.201033733690586</v>
+        <v>8.20214290412903</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000156712001611858</v>
+        <v>1.378811401819278</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.20214290412903</v>
+        <v>0.0105428231362521</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.378811401819278</v>
+        <v>2.84308525700524</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0105428231362521</v>
+        <v>0.9451896711427785</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.84308525700524</v>
+        <v>1.87211324195994</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9451896711427785</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.87211324195994</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1535048867119858</v>
       </c>
     </row>
@@ -3449,72 +3413,66 @@
         <v>1.076734145935488e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7816361017556914</v>
+        <v>4.685016819599042e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.3500004486564157</v>
+        <v>2.979888141646347e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.685016819599042e-07</v>
+        <v>-0.06513272778297907</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.979888141646347e-06</v>
+        <v>0.2481721873398153</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06513272778297907</v>
+        <v>0.06577594006378032</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2481721873398153</v>
+        <v>1.549850817490467</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06577594006378032</v>
+        <v>1.382806086669439</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.478912473041555</v>
+        <v>3.694847079109445</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.382806086669439</v>
+        <v>1.23855433101386e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.694847079109445</v>
+        <v>16576931.11846446</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.23855433101386e-14</v>
+        <v>6.065652450931654e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>16576931.11846446</v>
+        <v>3.403480980835545</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.065652450931654e-06</v>
+        <v>0.0001754924970578368</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.403480980835545</v>
+        <v>9.461423980155452</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001754924970578368</v>
+        <v>1.279905396808063</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.461423980155452</v>
+        <v>0.01570983277255558</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.279905396808063</v>
+        <v>2.684520117300716</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01570983277255558</v>
+        <v>0.944463041325831</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.684520117300716</v>
+        <v>1.872146149691115</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.944463041325831</v>
+        <v>6</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.872146149691115</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1454035393867031</v>
       </c>
     </row>
@@ -3529,72 +3487,66 @@
         <v>1.004952650855694e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6807220675291052</v>
+        <v>3.853329927823524e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7594703434077679</v>
+        <v>2.973857013543983e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.853329927823524e-07</v>
+        <v>-0.05127783835835841</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.973857013543983e-06</v>
+        <v>0.250547808831191</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05127783835835841</v>
+        <v>0.06536827223814635</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.250547808831191</v>
+        <v>1.496657190275833</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06536827223814635</v>
+        <v>1.369782816961763</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.419284355166838</v>
+        <v>3.664900496668237</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.369782816961763</v>
+        <v>1.258877941966756e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.664900496668237</v>
+        <v>17363323.3611336</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.258877941966756e-14</v>
+        <v>5.792835935427768e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>17363323.3611336</v>
+        <v>3.795328139964732</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.792835935427768e-06</v>
+        <v>0.0002051846117696012</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.795328139964732</v>
+        <v>12.1310135078005</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002051846117696012</v>
+        <v>1.05943609974178</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.1310135078005</v>
+        <v>0.03019527293177075</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.05943609974178</v>
+        <v>2.335208833716823</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03019527293177075</v>
+        <v>0.9444121379526648</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.335208833716823</v>
+        <v>1.898510190966932</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9444121379526648</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.898510190966932</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1410842655497944</v>
       </c>
     </row>
@@ -3609,72 +3561,66 @@
         <v>9.576015111215797e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6751186947586834</v>
+        <v>3.248169656113544e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7980385449788634</v>
+        <v>2.96936191459457e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.248169656113544e-07</v>
+        <v>-0.04124163220572737</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.96936191459457e-06</v>
+        <v>0.2527562728158418</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04124163220572737</v>
+        <v>0.06556842423754561</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2527562728158418</v>
+        <v>1.547936716111976</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06556842423754561</v>
+        <v>1.551086418958657</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.468189633183842</v>
+        <v>3.515417349594085</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.551086418958657</v>
+        <v>1.346022017574638e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.515417349594085</v>
+        <v>15856802.32450796</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.346022017574638e-14</v>
+        <v>6.573821394488668e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>15856802.32450796</v>
+        <v>3.384413262830633</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.573821394488668e-06</v>
+        <v>0.0002223877243662327</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.384413262830633</v>
+        <v>11.10902695345375</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002223877243662327</v>
+        <v>1.337029018366435</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.10902695345375</v>
+        <v>0.02744497577735604</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.337029018366435</v>
+        <v>2.5775760640689</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02744497577735604</v>
+        <v>0.9484444691026515</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.5775760640689</v>
+        <v>1.860122412526269</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9484444691026515</v>
+        <v>6</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.860122412526269</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1306670780137841</v>
       </c>
     </row>
@@ -3689,72 +3635,66 @@
         <v>9.259806857854776e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7196872474863182</v>
+        <v>3.243935309613145e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6724332253837901</v>
+        <v>2.965802441209581e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.243935309613145e-07</v>
+        <v>-0.03486493936290073</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.965802441209581e-06</v>
+        <v>0.2552422742702514</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03486493936290073</v>
+        <v>0.06635353455352283</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2552422742702514</v>
+        <v>1.57232502156835</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06635353455352283</v>
+        <v>1.360464787986401</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.488538830180914</v>
+        <v>3.776873990655171</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.360464787986401</v>
+        <v>1.166113857709324e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.776873990655171</v>
+        <v>17482892.04780672</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.166113857709324e-14</v>
+        <v>6.113582504095433e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>17482892.04780672</v>
+        <v>3.564244665195131</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.113582504095433e-06</v>
+        <v>0.0001602921135379998</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.564244665195131</v>
+        <v>9.565856009308998</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001602921135379998</v>
+        <v>1.390089194647988</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.565856009308998</v>
+        <v>0.01466762621544394</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.390089194647988</v>
+        <v>2.960121771066767</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01466762621544394</v>
+        <v>0.946309881372395</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.960121771066767</v>
+        <v>1.876610773593741</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.946309881372395</v>
+        <v>6</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.876610773593741</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1570346292785301</v>
       </c>
     </row>
@@ -4131,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.416869870245409</v>
+        <v>1.391876214288684</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.494022021915059</v>
@@ -4220,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.409360877215587</v>
+        <v>1.378936149951635</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.35581717400397</v>
@@ -4309,7 +4249,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.409591804414712</v>
+        <v>1.373429917633267</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.439937472494555</v>
@@ -4398,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.430867693093793</v>
+        <v>1.392752036675259</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.490731427927729</v>
@@ -4487,7 +4427,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.433631157328662</v>
+        <v>1.389027131225826</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.280891685017003</v>
@@ -4576,7 +4516,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.423985260849662</v>
+        <v>1.378385692682695</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.442541237026424</v>
@@ -4665,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.425413197695702</v>
+        <v>1.376456614091911</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.558195582693849</v>
@@ -4754,7 +4694,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.413106067995153</v>
+        <v>1.36960781634639</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.415415151786658</v>
@@ -4843,7 +4783,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.441414943776988</v>
+        <v>1.387036132414087</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.443147480647415</v>
@@ -4932,7 +4872,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.473206305738044</v>
+        <v>1.407873938392624</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.134167015124051</v>
@@ -5021,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.446500314320688</v>
+        <v>1.380335256250451</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.289352537055339</v>
@@ -5110,7 +5050,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.43861421583728</v>
+        <v>1.375194600020086</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.407927532894216</v>
@@ -5199,7 +5139,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.462174432072859</v>
+        <v>1.390308250393222</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.412799877715663</v>
@@ -5288,7 +5228,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.469015224185697</v>
+        <v>1.398768121310163</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.324317511463828</v>
@@ -5377,7 +5317,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.466594140619011</v>
+        <v>1.398748325993256</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.400283384026685</v>
@@ -5466,7 +5406,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.476845302225297</v>
+        <v>1.410698127094075</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.229972090408102</v>
@@ -5555,7 +5495,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.468424155068347</v>
+        <v>1.403492730504797</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.358964839119006</v>
@@ -5644,7 +5584,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.468729931596461</v>
+        <v>1.405573897487933</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.235616537696794</v>
@@ -5733,7 +5673,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.465220242219782</v>
+        <v>1.400502910965457</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.115849881347267</v>
@@ -5822,7 +5762,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.478788114237108</v>
+        <v>1.413336541152667</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.306467782955227</v>
@@ -5911,7 +5851,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.484194235332475</v>
+        <v>1.416620320643178</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.24106853037003</v>
@@ -6000,7 +5940,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.516102261797315</v>
+        <v>1.440451252840768</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.213671237608632</v>
@@ -6089,7 +6029,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.52292057956576</v>
+        <v>1.450229466721104</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.272006062772813</v>
@@ -6178,7 +6118,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526747743214745</v>
+        <v>1.459886623492941</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.246335168920023</v>
@@ -6267,7 +6207,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.532859742709028</v>
+        <v>1.468006029177167</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.512537262346015</v>
@@ -6356,7 +6296,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.543205148708599</v>
+        <v>1.479836622192862</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.249199580860893</v>
@@ -6445,7 +6385,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.554143626199064</v>
+        <v>1.487745311916182</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.361674498743618</v>
@@ -6534,7 +6474,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538300198033037</v>
+        <v>1.480111125050277</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.411755214652993</v>
@@ -6623,7 +6563,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.53105977454735</v>
+        <v>1.475208628525476</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.441436965622201</v>
@@ -6712,7 +6652,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.52996607337887</v>
+        <v>1.460549461350011</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.434528056515217</v>
@@ -6801,7 +6741,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.527869613877711</v>
+        <v>1.455433941818201</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.490771211547503</v>
@@ -6890,7 +6830,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.542221161342108</v>
+        <v>1.463880615813804</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.499620422603906</v>
@@ -6979,7 +6919,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526848579715095</v>
+        <v>1.45829327460891</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.490866580530296</v>
@@ -7068,7 +7008,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.518220679377493</v>
+        <v>1.449282974584948</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.355558862979346</v>
@@ -7157,7 +7097,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.512849740475202</v>
+        <v>1.442788316353365</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.333923968699869</v>
@@ -7246,7 +7186,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.509640534819223</v>
+        <v>1.439486050599688</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.470512076476235</v>
@@ -7335,7 +7275,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.502025028757716</v>
+        <v>1.434247344093791</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.383952031114122</v>
@@ -7424,7 +7364,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.50959072533468</v>
+        <v>1.440401392083348</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.50262202980271</v>
@@ -7513,7 +7453,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.488392257733319</v>
+        <v>1.418657307632047</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.327235352191167</v>
@@ -7602,7 +7542,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.514025506101555</v>
+        <v>1.43531813351012</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.358786665597633</v>
@@ -7691,7 +7631,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.536979638616339</v>
+        <v>1.443369332316144</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.566967334202996</v>
@@ -7780,7 +7720,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.544818204806424</v>
+        <v>1.438895105277197</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.532343926617525</v>
@@ -7869,7 +7809,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.547307008360799</v>
+        <v>1.443841332408033</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.610782818872797</v>
@@ -7958,7 +7898,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.559205665369717</v>
+        <v>1.45877317875839</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.537949527288736</v>
@@ -8047,7 +7987,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.56258623894566</v>
+        <v>1.469102511321132</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.503014410854678</v>
@@ -8136,7 +8076,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.567428749399012</v>
+        <v>1.478404633528018</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.411344514476156</v>
@@ -8225,7 +8165,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.589458539991032</v>
+        <v>1.493880402372423</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.367223291014785</v>
@@ -8314,7 +8254,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590116228757209</v>
+        <v>1.497726081454162</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.53060096842754</v>
@@ -8403,7 +8343,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.630156850626465</v>
+        <v>1.527779424813985</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.563192240617665</v>
@@ -8492,7 +8432,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.626980714782428</v>
+        <v>1.531388213354108</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.514698770276571</v>
@@ -8581,7 +8521,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.635655124633609</v>
+        <v>1.544650033315266</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.5679427152629</v>
@@ -8670,7 +8610,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.6439087779544</v>
+        <v>1.549435390991639</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.423459488432361</v>
@@ -8759,7 +8699,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.640076425693271</v>
+        <v>1.541540382400886</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.642616209225029</v>
@@ -9045,7 +8985,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.399769519101123</v>
+        <v>1.388976632654243</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.053304430919359</v>
@@ -9134,7 +9074,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.389700532032832</v>
+        <v>1.380087304735111</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.054149907168797</v>
@@ -9223,7 +9163,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.393341338173234</v>
+        <v>1.381513545263817</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.058715480170959</v>
@@ -9312,7 +9252,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.396972072284469</v>
+        <v>1.38408420601251</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.046552870327797</v>
@@ -9401,7 +9341,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.38957450489565</v>
+        <v>1.371852290279372</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.918860166324732</v>
@@ -9490,7 +9430,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.390614110958812</v>
+        <v>1.367332695177693</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.00066325493756</v>
@@ -9579,7 +9519,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393413445672098</v>
+        <v>1.364500542121948</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.024486487701825</v>
@@ -9668,7 +9608,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.389422502233197</v>
+        <v>1.360819632979805</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.019730247620394</v>
@@ -9757,7 +9697,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.392450401061912</v>
+        <v>1.356543022898996</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.963649480314328</v>
@@ -9846,7 +9786,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.453152427021268</v>
+        <v>1.402723185197821</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.774101473561859</v>
@@ -9935,7 +9875,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.474000902940534</v>
+        <v>1.412495602567954</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.398360888248865</v>
@@ -10024,7 +9964,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.437280630727169</v>
+        <v>1.39019237518457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.453647242407101</v>
@@ -10113,7 +10053,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.449763622679911</v>
+        <v>1.396997875304224</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.393007681430617</v>
@@ -10202,7 +10142,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.444838282847049</v>
+        <v>1.392095846947021</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.47356207607954</v>
@@ -10291,7 +10231,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.442092164912933</v>
+        <v>1.398686172025052</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.467164920529011</v>
@@ -10380,7 +10320,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.454486110548732</v>
+        <v>1.416951729890842</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.46984086339435</v>
@@ -10469,7 +10409,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.451336495507452</v>
+        <v>1.413362019872889</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.498465484861704</v>
@@ -10558,7 +10498,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.449846377557717</v>
+        <v>1.418287400127326</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.409869642536276</v>
@@ -10647,7 +10587,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.448929616320281</v>
+        <v>1.420663358036375</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.338821657191574</v>
@@ -10736,7 +10676,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.454402587364839</v>
+        <v>1.427130843453292</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.50453366850404</v>
@@ -10825,7 +10765,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.45933889151392</v>
+        <v>1.432816049055002</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.312394023822235</v>
@@ -10914,7 +10854,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.483175502813987</v>
+        <v>1.450539027217039</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.39790708220612</v>
@@ -11003,7 +10943,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485698297149379</v>
+        <v>1.451107141546784</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.431124005396544</v>
@@ -11092,7 +11032,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.491168270088774</v>
+        <v>1.463991416852334</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.493801588356699</v>
@@ -11181,7 +11121,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.502428245851508</v>
+        <v>1.477704289068327</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.41502927078141</v>
@@ -11270,7 +11210,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.538609124163336</v>
+        <v>1.515718401626809</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.352761202368924</v>
@@ -11359,7 +11299,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590961552910457</v>
+        <v>1.556630705645429</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.930573765782329</v>
@@ -11448,7 +11388,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585370700854203</v>
+        <v>1.554298750995018</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.547365058103307</v>
@@ -11537,7 +11477,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596198136890079</v>
+        <v>1.564518974453438</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.876583216471754</v>
@@ -11626,7 +11566,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609395611584491</v>
+        <v>1.552993637548873</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.574134495969552</v>
@@ -11715,7 +11655,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.589433227802483</v>
+        <v>1.530230146571469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.684825235535209</v>
@@ -11804,7 +11744,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.600777229810675</v>
+        <v>1.526864892883345</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.857126531912885</v>
@@ -11893,7 +11833,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.593988938783566</v>
+        <v>1.525608794940416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.880213167923618</v>
@@ -11982,7 +11922,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599978319843278</v>
+        <v>1.525776086919928</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.17290652388766</v>
@@ -12071,7 +12011,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592272297079754</v>
+        <v>1.519936866715817</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.450929525346821</v>
@@ -12160,7 +12100,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.576177818341537</v>
+        <v>1.512663272151252</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.077409389006391</v>
@@ -12249,7 +12189,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.566251349089434</v>
+        <v>1.513781966670346</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.808257923037178</v>
@@ -12338,7 +12278,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.566271932737216</v>
+        <v>1.513153407798437</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.385501200239748</v>
@@ -12427,7 +12367,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.559144312363824</v>
+        <v>1.500814490497684</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.758900426627178</v>
@@ -12516,7 +12456,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.573404568140539</v>
+        <v>1.508271522116797</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.173266641564631</v>
@@ -12605,7 +12545,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.57947503805478</v>
+        <v>1.508363197194819</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.112903284693594</v>
@@ -12694,7 +12634,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581922843173966</v>
+        <v>1.504114165617607</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.052568938404805</v>
@@ -12783,7 +12723,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.573940234237897</v>
+        <v>1.496317373199407</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.185487145745281</v>
@@ -12872,7 +12812,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569453685581921</v>
+        <v>1.491821953391888</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.902187838229159</v>
@@ -12961,7 +12901,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.565164839972518</v>
+        <v>1.497470496598527</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.853559667040051</v>
@@ -13050,7 +12990,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576144418402828</v>
+        <v>1.511898280795435</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.840668682487212</v>
@@ -13139,7 +13079,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.581856445807905</v>
+        <v>1.518382842560655</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.817708306876587</v>
@@ -13228,7 +13168,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.568777675699166</v>
+        <v>1.51392577845314</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.099427216946911</v>
@@ -13317,7 +13257,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.564501972925956</v>
+        <v>1.513328055872984</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.736255143242108</v>
@@ -13406,7 +13346,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.563398383938436</v>
+        <v>1.512236304909549</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.870093428948052</v>
@@ -13495,7 +13435,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.567416273308969</v>
+        <v>1.511765581651551</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.018402872851424</v>
@@ -13584,7 +13524,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.562549420836235</v>
+        <v>1.501009415379402</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.929055303731955</v>
@@ -13673,7 +13613,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.554988781135228</v>
+        <v>1.490113585096645</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.019032479448018</v>
@@ -13959,7 +13899,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.657655759870811</v>
+        <v>1.571942834620353</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.374083546433861</v>
@@ -14048,7 +13988,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.655181489166303</v>
+        <v>1.571921128131395</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.962802597814008</v>
@@ -14137,7 +14077,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647552702962318</v>
+        <v>1.558687168715352</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.526716895212735</v>
@@ -14226,7 +14166,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.658921186433766</v>
+        <v>1.584616934225511</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.014462778192684</v>
@@ -14315,7 +14255,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.640661368595843</v>
+        <v>1.565522287986853</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.212705106294124</v>
@@ -14404,7 +14344,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.633171022425968</v>
+        <v>1.547447139865698</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.320103618302377</v>
@@ -14493,7 +14433,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.631640347416172</v>
+        <v>1.543969764582129</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.299036211796689</v>
@@ -14582,7 +14522,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.632367608294627</v>
+        <v>1.544269075768837</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.134663560459238</v>
@@ -14671,7 +14611,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.634919233872176</v>
+        <v>1.544238257148027</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.985824808841648</v>
@@ -14760,7 +14700,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630929945328178</v>
+        <v>1.536576239592429</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.955383997368286</v>
@@ -14849,7 +14789,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.631719346963875</v>
+        <v>1.528647108160037</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.411325590318912</v>
@@ -14938,7 +14878,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.640829665830902</v>
+        <v>1.536457121574937</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.273191627690407</v>
@@ -15027,7 +14967,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.64867410171619</v>
+        <v>1.537524325591829</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.586352511349565</v>
@@ -15116,7 +15056,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.651138925026333</v>
+        <v>1.547381694698537</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.200234621924098</v>
@@ -15205,7 +15145,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.64953188432623</v>
+        <v>1.550794809195363</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.041718893053265</v>
@@ -15294,7 +15234,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.65421768282376</v>
+        <v>1.556635580527942</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.254298319416907</v>
@@ -15383,7 +15323,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.650696165693829</v>
+        <v>1.548468337460457</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.027072932579536</v>
@@ -15472,7 +15412,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.649812364600944</v>
+        <v>1.547098517272414</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.166964421550614</v>
@@ -15561,7 +15501,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64461450152101</v>
+        <v>1.532787724290606</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.113474458303175</v>
@@ -15650,7 +15590,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.637189322840173</v>
+        <v>1.533179077258291</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.08982807015711</v>
@@ -15739,7 +15679,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.634759590850245</v>
+        <v>1.533340759262439</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.966515712782667</v>
@@ -15828,7 +15768,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.640658288461533</v>
+        <v>1.541371867820779</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.260158191707872</v>
@@ -15917,7 +15857,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.636580193627267</v>
+        <v>1.541314273799578</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.66387755980861</v>
@@ -16006,7 +15946,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.634573289896294</v>
+        <v>1.544377634288218</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.668876882630676</v>
@@ -16095,7 +16035,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.645000960317592</v>
+        <v>1.550639827289672</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.687329306296855</v>
@@ -16184,7 +16124,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631713429451213</v>
+        <v>1.549370413397214</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.138000859156149</v>
@@ -16273,7 +16213,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629421471324058</v>
+        <v>1.549664034627495</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.126372408217942</v>
@@ -16362,7 +16302,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.619664240000463</v>
+        <v>1.541455186946974</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.219666359789009</v>
@@ -16451,7 +16391,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.613389724914065</v>
+        <v>1.536767085583945</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.345162876607877</v>
@@ -16540,7 +16480,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.613973516142699</v>
+        <v>1.529391610061841</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.586563654433179</v>
@@ -16629,7 +16569,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.61642027460694</v>
+        <v>1.536603875517631</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.038013471673299</v>
@@ -16718,7 +16658,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.616272762939191</v>
+        <v>1.536178347385009</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.471674986957839</v>
@@ -16807,7 +16747,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.614960065570189</v>
+        <v>1.539893331237272</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.776977262757436</v>
@@ -16896,7 +16836,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61306452201811</v>
+        <v>1.535326161902796</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.012810780757275</v>
@@ -16985,7 +16925,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.608227965479618</v>
+        <v>1.534350396080847</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.331781150092441</v>
@@ -17074,7 +17014,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.604999793173156</v>
+        <v>1.531949191223071</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.627948072747053</v>
@@ -17163,7 +17103,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.582815818693986</v>
+        <v>1.513589302702379</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.284156530596163</v>
@@ -17252,7 +17192,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.594054120371256</v>
+        <v>1.526154370786885</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.531871536971049</v>
@@ -17341,7 +17281,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.5892003449138</v>
+        <v>1.515821447992599</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.456580522431421</v>
@@ -17430,7 +17370,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583915463461098</v>
+        <v>1.509646227570866</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.832189173276245</v>
@@ -17519,7 +17459,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590823882505358</v>
+        <v>1.512810039545582</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.353290469133296</v>
@@ -17608,7 +17548,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576783836855477</v>
+        <v>1.491658189172187</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.243476196243404</v>
@@ -17697,7 +17637,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.576244807851731</v>
+        <v>1.494745495365928</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.253900109657848</v>
@@ -17786,7 +17726,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.581218938925169</v>
+        <v>1.497315006514269</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.552263300789464</v>
@@ -17875,7 +17815,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577130178735532</v>
+        <v>1.491866074610435</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.281271698025585</v>
@@ -17964,7 +17904,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.572989215170371</v>
+        <v>1.490152392486416</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.299353114038521</v>
@@ -18053,7 +17993,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569978515323131</v>
+        <v>1.487712087781306</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.262945275869373</v>
@@ -18142,7 +18082,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.568645437778873</v>
+        <v>1.493713121889573</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.128886936170314</v>
@@ -18231,7 +18171,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.571980948064988</v>
+        <v>1.501915081790843</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.075276760884253</v>
@@ -18320,7 +18260,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.582062795370103</v>
+        <v>1.510290558158721</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.08331843803896</v>
@@ -18409,7 +18349,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.586040401555112</v>
+        <v>1.513777395660718</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.984401227401518</v>
@@ -18498,7 +18438,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.605279551200848</v>
+        <v>1.53062586122091</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.159662999114962</v>
@@ -18587,7 +18527,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.595214376956249</v>
+        <v>1.517945052799805</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.431790130062211</v>
@@ -18873,7 +18813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686589085745606</v>
+        <v>1.596928943010562</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.53569017621854</v>
@@ -18962,7 +18902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.690542421190889</v>
+        <v>1.609590241089167</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.166941162906596</v>
@@ -19051,7 +18991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.689455193212272</v>
+        <v>1.602630738191173</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.533971655414256</v>
@@ -19140,7 +19080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.687829504206497</v>
+        <v>1.606547275367817</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.490760338582699</v>
@@ -19229,7 +19169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.681888257306634</v>
+        <v>1.58222553975082</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.72999177197</v>
@@ -19318,7 +19258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.67760213578809</v>
+        <v>1.566774326163069</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.626224028195341</v>
@@ -19407,7 +19347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.670909599749774</v>
+        <v>1.566174132568875</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.625537883380374</v>
@@ -19496,7 +19436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670182048838235</v>
+        <v>1.570959406394826</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.489957864723034</v>
@@ -19585,7 +19525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671817479477823</v>
+        <v>1.572586877893308</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.416766940971702</v>
@@ -19674,7 +19614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.672559735769944</v>
+        <v>1.561093715439571</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.00585357694535</v>
@@ -19763,7 +19703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.672253558137829</v>
+        <v>1.550431931932231</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.554602535047609</v>
@@ -19852,7 +19792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.680931842809727</v>
+        <v>1.566900381760718</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.549679167456944</v>
@@ -19941,7 +19881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.680509968512733</v>
+        <v>1.561337376336377</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.449017009888512</v>
@@ -20030,7 +19970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.679500046850406</v>
+        <v>1.560880878945437</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.696647708270264</v>
@@ -20119,7 +20059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.684111488995712</v>
+        <v>1.564293459074564</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.569078786873088</v>
@@ -20208,7 +20148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.697696171232972</v>
+        <v>1.580940542981525</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.653755320864714</v>
@@ -20297,7 +20237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.699232728691947</v>
+        <v>1.578065793925046</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.242295307735517</v>
@@ -20386,7 +20326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69973893220033</v>
+        <v>1.5852071405664</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.480452240855091</v>
@@ -20475,7 +20415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.706727113736454</v>
+        <v>1.586445952683735</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.383410888099667</v>
@@ -20564,7 +20504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.709132692977938</v>
+        <v>1.605047975905946</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.838977759432392</v>
@@ -20653,7 +20593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.711430319725977</v>
+        <v>1.605149724672397</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.559561414866367</v>
@@ -20742,7 +20682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.719698943399216</v>
+        <v>1.604265107618147</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.450039036663439</v>
@@ -20831,7 +20771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.721268962768141</v>
+        <v>1.603418230199144</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.344945334195817</v>
@@ -20920,7 +20860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.716287115759582</v>
+        <v>1.593796101527815</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.378138044127625</v>
@@ -21009,7 +20949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726261718503156</v>
+        <v>1.606017849254075</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.281440530614156</v>
@@ -21098,7 +21038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.730311617461914</v>
+        <v>1.617460097201082</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.451961040426689</v>
@@ -21187,7 +21127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.741219923867513</v>
+        <v>1.623431186254551</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.144098848776035</v>
@@ -21276,7 +21216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737070632138386</v>
+        <v>1.62658247917114</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.157362539196235</v>
@@ -21365,7 +21305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.741420063164492</v>
+        <v>1.627684449507379</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.425231443757617</v>
@@ -21454,7 +21394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.744568950131159</v>
+        <v>1.621235729374347</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.056933213308666</v>
@@ -21543,7 +21483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.731938899745007</v>
+        <v>1.615371495740363</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.092877826098958</v>
@@ -21632,7 +21572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.724681642093667</v>
+        <v>1.605147147311576</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.60929762891979</v>
@@ -21721,7 +21661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.711769121149072</v>
+        <v>1.591025626892557</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.930393442797214</v>
@@ -21810,7 +21750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706537814187685</v>
+        <v>1.586441055734258</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.991117852757181</v>
@@ -21899,7 +21839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.704463589142333</v>
+        <v>1.583485386516217</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.751554798991937</v>
@@ -21988,7 +21928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.706787177152173</v>
+        <v>1.590920645898882</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.008930243303351</v>
@@ -22077,7 +22017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.701996544590634</v>
+        <v>1.59676169207813</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.992616786204354</v>
@@ -22166,7 +22106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.701073583479292</v>
+        <v>1.599695438632741</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.250167710160299</v>
@@ -22255,7 +22195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.704133150242538</v>
+        <v>1.604786003675737</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.107287466744132</v>
@@ -22344,7 +22284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.702002518981865</v>
+        <v>1.597454169934112</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.746121257933503</v>
@@ -22433,7 +22373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.702988750923098</v>
+        <v>1.601357182215957</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.510229110645565</v>
@@ -22522,7 +22462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.689605696370245</v>
+        <v>1.57869238420775</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.526881992295458</v>
@@ -22611,7 +22551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.691678421920572</v>
+        <v>1.581491201155082</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.919089729849218</v>
@@ -22700,7 +22640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.685022435167207</v>
+        <v>1.579945411982888</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.862698022924105</v>
@@ -22789,7 +22729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.68439442775447</v>
+        <v>1.590423167704097</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.495053613099606</v>
@@ -22878,7 +22818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.68539165608132</v>
+        <v>1.590291496933946</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.467415982861601</v>
@@ -22967,7 +22907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.686102213384379</v>
+        <v>1.58918295032877</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.243875283071372</v>
@@ -23056,7 +22996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.692279394629704</v>
+        <v>1.600248437806999</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.902437602043325</v>
@@ -23145,7 +23085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.688308783789144</v>
+        <v>1.596865157956483</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.686953588574478</v>
@@ -23234,7 +23174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.691280860791873</v>
+        <v>1.602895183421018</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.880147872563428</v>
@@ -23323,7 +23263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.693411366295809</v>
+        <v>1.606926771244279</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.407462178347012</v>
@@ -23412,7 +23352,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.684317120504716</v>
+        <v>1.593069650694362</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.404368232401822</v>
@@ -23501,7 +23441,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.676435800453689</v>
+        <v>1.581258966933388</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.182341637626103</v>
@@ -23787,7 +23727,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.592157481829096</v>
+        <v>1.580215524821984</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.769879284596301</v>
@@ -23876,7 +23816,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.594660184920893</v>
+        <v>1.582166098894042</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.637211442310888</v>
@@ -23965,7 +23905,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.601407161427929</v>
+        <v>1.574025826463625</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.712568554615534</v>
@@ -24054,7 +23994,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.600710214623876</v>
+        <v>1.571341282699352</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.593993249494023</v>
@@ -24143,7 +24083,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.593797616918454</v>
+        <v>1.558351693248372</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.803362164196747</v>
@@ -24232,7 +24172,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578345486095436</v>
+        <v>1.537455514208934</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.566034473087815</v>
@@ -24321,7 +24261,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594405318634806</v>
+        <v>1.552492574829351</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.53183939821538</v>
@@ -24410,7 +24350,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.586275343545491</v>
+        <v>1.542581384912852</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.624711740950374</v>
@@ -24499,7 +24439,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59105805203651</v>
+        <v>1.543562515134248</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.510259020884546</v>
@@ -24588,7 +24528,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.609520943300365</v>
+        <v>1.544891121970496</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.442262832008373</v>
@@ -24677,7 +24617,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.60627329737341</v>
+        <v>1.53309522717134</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.766851367015536</v>
@@ -24766,7 +24706,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.586587163376347</v>
+        <v>1.530091421900889</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.888593930225984</v>
@@ -24855,7 +24795,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.58264819202574</v>
+        <v>1.518181839628273</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.038767859242231</v>
@@ -24944,7 +24884,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.568670832068368</v>
+        <v>1.508708838827935</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.927913206306898</v>
@@ -25033,7 +24973,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.563114078247476</v>
+        <v>1.498399604174973</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.16605791866453</v>
@@ -25122,7 +25062,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.5638527747376</v>
+        <v>1.50155588225248</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.082929955542914</v>
@@ -25211,7 +25151,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.569880384904643</v>
+        <v>1.507041229466251</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.024066236099563</v>
@@ -25300,7 +25240,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.562894969035865</v>
+        <v>1.512027616410638</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.164352209505709</v>
@@ -25389,7 +25329,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.558737072920831</v>
+        <v>1.50671858122804</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.897969244290716</v>
@@ -25478,7 +25418,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.569750001556935</v>
+        <v>1.517925001193311</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.966305205996903</v>
@@ -25567,7 +25507,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.5812617188132</v>
+        <v>1.53295838899808</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.120906672304435</v>
@@ -25656,7 +25596,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581558216802551</v>
+        <v>1.534073936254307</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.841006167773242</v>
@@ -25745,7 +25685,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.579482968299461</v>
+        <v>1.529783506768055</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.122296231682527</v>
@@ -25834,7 +25774,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584535819278138</v>
+        <v>1.53563174471492</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.092700407869294</v>
@@ -25923,7 +25863,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.59422540365184</v>
+        <v>1.549767396103048</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.542370334631587</v>
@@ -26012,7 +25952,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614019852753951</v>
+        <v>1.574076910031296</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.632590111012162</v>
@@ -26101,7 +26041,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.634474400342355</v>
+        <v>1.582750263815193</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.401545141417972</v>
@@ -26190,7 +26130,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.631774077719698</v>
+        <v>1.577832964711873</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.228968190211579</v>
@@ -26279,7 +26219,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644398633257769</v>
+        <v>1.58153861006622</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.33152379480654</v>
@@ -26368,7 +26308,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.651260064191836</v>
+        <v>1.589914937726508</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.136425825872728</v>
@@ -26457,7 +26397,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.652438369883523</v>
+        <v>1.589868360989727</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.675679395279748</v>
@@ -26546,7 +26486,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.653963139346173</v>
+        <v>1.577490276227899</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.149832371593763</v>
@@ -26635,7 +26575,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648841247325409</v>
+        <v>1.568763154080666</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.798416047531966</v>
@@ -26724,7 +26664,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.646001256730531</v>
+        <v>1.569536801775003</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.211364487953888</v>
@@ -26813,7 +26753,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.624817174213123</v>
+        <v>1.550339216685345</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.014005986700221</v>
@@ -26902,7 +26842,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626055643895454</v>
+        <v>1.556453903774562</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.000771671154867</v>
@@ -26991,7 +26931,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.61323819956589</v>
+        <v>1.541540762311674</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.799002580719513</v>
@@ -27080,7 +27020,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625756930835979</v>
+        <v>1.55140764133213</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.036859011370429</v>
@@ -27169,7 +27109,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619208625831871</v>
+        <v>1.540436701202294</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.872468798564646</v>
@@ -27258,7 +27198,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627480509105925</v>
+        <v>1.5475692328553</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.740487644562823</v>
@@ -27347,7 +27287,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.630458988195845</v>
+        <v>1.54793548113196</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.153267469177488</v>
@@ -27436,7 +27376,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.627272968974222</v>
+        <v>1.550920297337525</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.995679824847135</v>
@@ -27525,7 +27465,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.627074242075288</v>
+        <v>1.549167351924222</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.081335944278913</v>
@@ -27614,7 +27554,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.634432923018695</v>
+        <v>1.555192041624397</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.007566010830079</v>
@@ -27703,7 +27643,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629107171401385</v>
+        <v>1.551447246726565</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.114284135361667</v>
@@ -27792,7 +27732,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.623192648078329</v>
+        <v>1.547633875850847</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.115947642225552</v>
@@ -27881,7 +27821,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.611194939080273</v>
+        <v>1.550354189628146</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.84026393765485</v>
@@ -27970,7 +27910,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.601862432836819</v>
+        <v>1.550856459219015</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.107963859650134</v>
@@ -28059,7 +27999,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.617205496248705</v>
+        <v>1.559720517745156</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.762765101690857</v>
@@ -28148,7 +28088,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.610605484828771</v>
+        <v>1.56054746045378</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.185604188893005</v>
@@ -28237,7 +28177,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.605898027276995</v>
+        <v>1.551586359380805</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.335619491590952</v>
@@ -28326,7 +28266,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.60801888729476</v>
+        <v>1.552235880290842</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.272269997949768</v>
@@ -28415,7 +28355,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.601844011177946</v>
+        <v>1.555803018884681</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.308444296568322</v>
@@ -28701,7 +28641,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.43792970538904</v>
+        <v>1.416008558052181</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.436421647331975</v>
@@ -28790,7 +28730,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.429356055857783</v>
+        <v>1.407265396053307</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.265034435719082</v>
@@ -28879,7 +28819,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.443139508633887</v>
+        <v>1.417404609091357</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.554240889581986</v>
@@ -28968,7 +28908,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468548856391658</v>
+        <v>1.441850327661061</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.666272065932741</v>
@@ -29057,7 +28997,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.474337046428031</v>
+        <v>1.43873029609079</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.448530686141005</v>
@@ -29146,7 +29086,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.462481765034986</v>
+        <v>1.422947598892671</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.575511221593553</v>
@@ -29235,7 +29175,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.463135672080092</v>
+        <v>1.420256047125056</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.574374811165781</v>
@@ -29324,7 +29264,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.451612703858088</v>
+        <v>1.41480871782031</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.461723839186395</v>
@@ -29413,7 +29353,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.492150584332076</v>
+        <v>1.447291471378289</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.486641226642494</v>
@@ -29502,7 +29442,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.505194701573973</v>
+        <v>1.450910188452226</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.653481199208488</v>
@@ -29591,7 +29531,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.457299755489141</v>
+        <v>1.397905593864249</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.415481333098101</v>
@@ -29680,7 +29620,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453520550041959</v>
+        <v>1.39816862730745</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.517443279566645</v>
@@ -29769,7 +29709,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.472177454492545</v>
+        <v>1.406258239337986</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.519920963602982</v>
@@ -29858,7 +29798,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46989872237128</v>
+        <v>1.402030370890228</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.484907215699722</v>
@@ -29947,7 +29887,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.464901367931775</v>
+        <v>1.399254581697486</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.525626427941189</v>
@@ -30036,7 +29976,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.475286609886264</v>
+        <v>1.411733440956559</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.286505398919067</v>
@@ -30125,7 +30065,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.471960856167047</v>
+        <v>1.408852384294518</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.413649202548998</v>
@@ -30214,7 +30154,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.465348350543899</v>
+        <v>1.406156474782489</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.360854788153099</v>
@@ -30303,7 +30243,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.464201725058535</v>
+        <v>1.403182870134773</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.298935469774889</v>
@@ -30392,7 +30332,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.473343339849079</v>
+        <v>1.415437946309352</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.489565750688462</v>
@@ -30481,7 +30421,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.476931087918671</v>
+        <v>1.422467540422069</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.549687048162774</v>
@@ -30570,7 +30510,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511973269123354</v>
+        <v>1.442827895764021</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.255251263909896</v>
@@ -30659,7 +30599,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.519323814490204</v>
+        <v>1.452023751970627</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.329486318656015</v>
@@ -30748,7 +30688,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.521977236490441</v>
+        <v>1.457423380884542</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.342348384346361</v>
@@ -30837,7 +30777,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.52803896539135</v>
+        <v>1.465838806011795</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.498849560147863</v>
@@ -30926,7 +30866,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572819219548845</v>
+        <v>1.507713263027789</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.279614747533418</v>
@@ -31015,7 +30955,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581801488840847</v>
+        <v>1.519667271573058</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.365888088808784</v>
@@ -31104,7 +31044,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562289768451488</v>
+        <v>1.511325931091074</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.472261498115637</v>
@@ -31193,7 +31133,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.55696653014686</v>
+        <v>1.503189503407787</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.668459986615864</v>
@@ -31282,7 +31222,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.562820188906034</v>
+        <v>1.505694235632012</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.471881495965231</v>
@@ -31371,7 +31311,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.557930334175278</v>
+        <v>1.497932364855066</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.648667911344114</v>
@@ -31460,7 +31400,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570365801862127</v>
+        <v>1.494146288769652</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.48558593196384</v>
@@ -31549,7 +31489,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.553284818015289</v>
+        <v>1.486631728550322</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.541256526040427</v>
@@ -31638,7 +31578,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.538615052553743</v>
+        <v>1.471589212751538</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.332119419311279</v>
@@ -31727,7 +31667,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.53501047346848</v>
+        <v>1.465608140054731</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.274853975629057</v>
@@ -31816,7 +31756,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531373520019256</v>
+        <v>1.466462926842156</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.429029846447878</v>
@@ -31905,7 +31845,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526495964851808</v>
+        <v>1.465880394295401</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.372610975950592</v>
@@ -31994,7 +31934,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530777552693669</v>
+        <v>1.466138617465562</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.377863539703052</v>
@@ -32083,7 +32023,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.509404340454761</v>
+        <v>1.448032070537928</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.255809109156363</v>
@@ -32172,7 +32112,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.535319657395958</v>
+        <v>1.465759654473253</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.370995550150517</v>
@@ -32261,7 +32201,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53475240255329</v>
+        <v>1.460562008697881</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.464916689652267</v>
@@ -32350,7 +32290,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537534440767032</v>
+        <v>1.452677073009386</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.462176114115922</v>
@@ -32439,7 +32379,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.542437766262861</v>
+        <v>1.456703214171287</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.430258874104142</v>
@@ -32528,7 +32468,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552069153904764</v>
+        <v>1.471670018106339</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.401127213013051</v>
@@ -32617,7 +32557,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.549313578414322</v>
+        <v>1.46939604072996</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.540811016906924</v>
@@ -32706,7 +32646,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.548640344182417</v>
+        <v>1.469417891458107</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.288341958502188</v>
@@ -32795,7 +32735,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573822324161199</v>
+        <v>1.492725585692201</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.273602395894669</v>
@@ -32884,7 +32824,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575825974516788</v>
+        <v>1.495797359489255</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.341997145205327</v>
@@ -32973,7 +32913,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.629624586635547</v>
+        <v>1.530790951086398</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.696549822494463</v>
@@ -33062,7 +33002,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.633526665518466</v>
+        <v>1.533595925487732</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.650471279704453</v>
@@ -33151,7 +33091,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638147826370442</v>
+        <v>1.543191008269204</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.87268417623489</v>
@@ -33240,7 +33180,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.634879656912291</v>
+        <v>1.541716109352496</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.605404546424777</v>
@@ -33329,7 +33269,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.633202515113578</v>
+        <v>1.544689604187915</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.899399195759969</v>
